--- a/Brisbane_stats.xlsx
+++ b/Brisbane_stats.xlsx
@@ -12556,7 +12556,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -16826,7 +16826,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -17436,7 +17436,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -18046,7 +18046,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -29026,7 +29026,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -30856,7 +30856,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -31466,7 +31466,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -33296,7 +33296,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -34516,7 +34516,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kicks (every)</t>
+          <t>Kicks (O)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -35126,7 +35126,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Handballs (row)</t>
+          <t>Handballs (O)</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -35736,7 +35736,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Disposals (from)</t>
+          <t>Disposals (O)</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -36346,7 +36346,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kick to HB Ratio (kicks)</t>
+          <t>Kick to HB Ratio (O)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -36956,7 +36956,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Marks (below)</t>
+          <t>Marks (O)</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -37566,7 +37566,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Tackles(is against)</t>
+          <t>Tackles(O)</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -38176,7 +38176,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Hitouts</t>
+          <t>Hitouts(O)</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -38786,7 +38786,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Frees For</t>
+          <t>Frees For(O)</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -39396,7 +39396,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Frees Against</t>
+          <t>Frees Against(O)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -40006,7 +40006,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Goals Kicked</t>
+          <t>Goals Kicked(O)</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -40616,7 +40616,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Goal Assists</t>
+          <t>Goal Assists1(O)</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -41226,7 +41226,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Behinds Kicked</t>
+          <t>Behinds Kicked(O)</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -41836,7 +41836,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rushed Behinds</t>
+          <t>Rushed Behinds(O)</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -42446,7 +42446,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Scoring Shots</t>
+          <t>Scoring Shots(O)</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -43056,7 +43056,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Conversion %</t>
+          <t>Conversion %(O)</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -43666,7 +43666,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Disposals Per Goal</t>
+          <t>Disposals Per Goal(O)</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -44276,7 +44276,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Disposals Per Scoring Shot</t>
+          <t>Disposals Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -44886,7 +44886,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances1(O)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -45496,7 +45496,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers1(O)</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -46106,7 +46106,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s1(O)</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -46716,7 +46716,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Inside 50s</t>
+          <t>Inside 50s(O)</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -47326,7 +47326,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>In50s Per Scoring Shot</t>
+          <t>In50s Per Scoring Shot(O)</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -47936,7 +47936,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>In50s Per Goal</t>
+          <t>In50s Per Goal(O)</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -48546,7 +48546,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>% In50s Score</t>
+          <t>% In50s Score(O)</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -49156,7 +49156,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>% In50s Goal</t>
+          <t>% In50s Goal(O)</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -49766,7 +49766,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Height</t>
+          <t>Height(O)</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -50376,7 +50376,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Weight</t>
+          <t>Weight(O)</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -50986,7 +50986,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>Age(O)</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -51596,7 +51596,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Av Games</t>
+          <t>Av Games(O)</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -52206,7 +52206,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;50 Games</t>
+          <t>&lt;50 Games(O)</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -52816,7 +52816,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50-99 Games</t>
+          <t>50-99 Games(O)</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -53426,7 +53426,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-149 Games</t>
+          <t>100-149 Games(O)</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -54036,7 +54036,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&gt;150 Games</t>
+          <t>&gt;150 Games(O)</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -54646,7 +54646,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Contested Poss</t>
+          <t>Contested Poss(O)</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -55256,7 +55256,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Uncontested Poss</t>
+          <t>Uncontested Poss(O)</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -55866,7 +55866,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Effective Disposals</t>
+          <t>Effective Disposals(O)</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -56476,7 +56476,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Disposal Efficiency</t>
+          <t>Disposal Efficiency(O)</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -57086,7 +57086,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Clangers</t>
+          <t>Clangers2(O)</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -57696,7 +57696,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Contested Marks</t>
+          <t>Contested Marks(O)</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -58306,7 +58306,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Marks Inside 50</t>
+          <t>Marks Inside 50(O)</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -58916,7 +58916,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Clearances</t>
+          <t>Clearances2(O)</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -59526,7 +59526,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Rebound 50s</t>
+          <t>Rebound 50s2(O)</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -60136,7 +60136,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1%ers</t>
+          <t>1%ers(O)</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -60746,7 +60746,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Bounces</t>
+          <t>Bounces(O)</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -61356,7 +61356,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Goals Assists</t>
+          <t>Goals Assists2(O)</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -61966,7 +61966,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Goal Assist %</t>
+          <t>Goal Assist %(O)</t>
         </is>
       </c>
       <c r="B102" t="n">

--- a/Brisbane_stats.xlsx
+++ b/Brisbane_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:GV102"/>
+  <dimension ref="A1:GW102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GR90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GS98" activeCellId="0" sqref="GS98"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GR90" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="GS98" activeCellId="0" pane="topLeft" sqref="GS98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1000,11 +1000,14 @@
       <c r="GU1" s="1" t="n">
         <v>10128</v>
       </c>
-      <c r="GV1" t="n">
+      <c r="GV1" s="1" t="n">
         <v>10140</v>
       </c>
+      <c r="GW1" t="n">
+        <v>10150</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1616,11 +1619,14 @@
       <c r="GU2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="GV2" t="n">
+      <c r="GV2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="GW2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2232,11 +2238,14 @@
       <c r="GU3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GV3" t="n">
+      <c r="GV3" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="GW3" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2848,11 +2857,14 @@
       <c r="GU4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GV4" t="n">
+      <c r="GV4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GW4" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3464,11 +3476,14 @@
       <c r="GU5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GV5" t="n">
+      <c r="GV5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GW5" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4080,11 +4095,14 @@
       <c r="GU6" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="GV6" t="n">
+      <c r="GV6" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="GW6" t="n">
+        <v>83</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4696,11 +4714,14 @@
       <c r="GU7" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="GV7" t="n">
+      <c r="GV7" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="GW7" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5312,11 +5333,14 @@
       <c r="GU8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="GV8" t="n">
+      <c r="GV8" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="GW8" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -5928,11 +5952,14 @@
       <c r="GU9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GV9" t="n">
+      <c r="GV9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GW9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6544,11 +6571,14 @@
       <c r="GU10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GV10" t="n">
+      <c r="GV10" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="GW10" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7160,11 +7190,14 @@
       <c r="GU11" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="GV11" t="n">
+      <c r="GV11" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="GW11" t="n">
+        <v>199</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -7776,11 +7809,14 @@
       <c r="GU12" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="GV12" t="n">
+      <c r="GV12" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="GW12" t="n">
+        <v>86</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8392,11 +8428,14 @@
       <c r="GU13" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="GV13" t="n">
+      <c r="GV13" s="1" t="n">
         <v>282</v>
       </c>
+      <c r="GW13" t="n">
+        <v>285</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9008,11 +9047,14 @@
       <c r="GU14" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="GV14" t="n">
+      <c r="GV14" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="GW14" t="n">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9624,11 +9666,14 @@
       <c r="GU15" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="GV15" t="n">
+      <c r="GV15" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="GW15" t="n">
+        <v>80</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10240,11 +10285,14 @@
       <c r="GU16" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GV16" t="n">
+      <c r="GV16" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="GW16" t="n">
+        <v>68</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -10856,11 +10904,14 @@
       <c r="GU17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="GV17" t="n">
+      <c r="GV17" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="GW17" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11472,11 +11523,14 @@
       <c r="GU18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="GV18" t="n">
+      <c r="GV18" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="GW18" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12088,11 +12142,14 @@
       <c r="GU19" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="GV19" t="n">
+      <c r="GV19" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="GW19" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -12704,11 +12761,14 @@
       <c r="GU20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="GV20" t="n">
+      <c r="GV20" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="GW20" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13320,11 +13380,14 @@
       <c r="GU21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GV21" t="n">
+      <c r="GV21" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GW21" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -13936,11 +13999,14 @@
       <c r="GU22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GV22" t="n">
+      <c r="GV22" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="GW22" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -14552,11 +14618,14 @@
       <c r="GU23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GV23" t="n">
+      <c r="GV23" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="GW23" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15168,11 +15237,14 @@
       <c r="GU24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GV24" t="n">
+      <c r="GV24" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="GW24" t="n">
+        <v>33</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -15784,11 +15856,14 @@
       <c r="GU25" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="GV25" t="n">
+      <c r="GV25" s="1" t="n">
         <v>41.7</v>
       </c>
+      <c r="GW25" t="n">
+        <v>30.3</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16400,11 +16475,14 @@
       <c r="GU26" s="1" t="n">
         <v>25.75</v>
       </c>
-      <c r="GV26" t="n">
+      <c r="GV26" s="1" t="n">
         <v>28.2</v>
       </c>
+      <c r="GW26" t="n">
+        <v>28.5</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17016,11 +17094,14 @@
       <c r="GU27" s="1" t="n">
         <v>14.71</v>
       </c>
-      <c r="GV27" t="n">
+      <c r="GV27" s="1" t="n">
         <v>11.75</v>
       </c>
+      <c r="GW27" t="n">
+        <v>8.640000000000001</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -17632,11 +17713,14 @@
       <c r="GU28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GV28" t="n">
+      <c r="GV28" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="GW28" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18248,11 +18332,14 @@
       <c r="GU29" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GV29" t="n">
+      <c r="GV29" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="GW29" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -18864,11 +18951,14 @@
       <c r="GU30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GV30" t="n">
+      <c r="GV30" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="GW30" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -19480,11 +19570,14 @@
       <c r="GU31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="GV31" t="n">
+      <c r="GV31" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="GW31" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20096,11 +20189,14 @@
       <c r="GU32" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="GV32" t="n">
+      <c r="GV32" s="1" t="n">
         <v>2.08</v>
       </c>
+      <c r="GW32" t="n">
+        <v>1.82</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -20712,11 +20808,14 @@
       <c r="GU33" s="1" t="n">
         <v>3.58</v>
       </c>
-      <c r="GV33" t="n">
+      <c r="GV33" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GW33" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -21328,11 +21427,14 @@
       <c r="GU34" s="1" t="n">
         <v>44.2</v>
       </c>
-      <c r="GV34" t="n">
+      <c r="GV34" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="GW34" t="n">
+        <v>53.3</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -21944,11 +22046,14 @@
       <c r="GU35" s="1" t="n">
         <v>27.9</v>
       </c>
-      <c r="GV35" t="n">
+      <c r="GV35" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="GW35" t="n">
+        <v>16.7</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -22560,11 +22665,14 @@
       <c r="GU36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="GV36" t="n">
+      <c r="GV36" s="1" t="n">
         <v>189.3</v>
       </c>
+      <c r="GW36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23176,11 +23284,14 @@
       <c r="GU37" s="1" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="GV37" t="n">
+      <c r="GV37" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
+      <c r="GW37" t="n">
+        <v>89</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -23792,11 +23903,14 @@
       <c r="GU38" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="GV38" t="n">
+      <c r="GV38" s="1" t="n">
         <v>25.16</v>
       </c>
+      <c r="GW38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -24408,11 +24522,14 @@
       <c r="GU39" s="1" t="n">
         <v>102.7</v>
       </c>
-      <c r="GV39" t="n">
+      <c r="GV39" s="1" t="n">
         <v>89.90000000000001</v>
       </c>
+      <c r="GW39" t="n">
+        <v>98.5</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25024,11 +25141,14 @@
       <c r="GU40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GV40" t="n">
+      <c r="GV40" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="GW40" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -25640,11 +25760,14 @@
       <c r="GU41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GV41" t="n">
+      <c r="GV41" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GW41" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -26256,11 +26379,14 @@
       <c r="GU42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GV42" t="n">
+      <c r="GV42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GW42" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -26872,11 +26998,14 @@
       <c r="GU43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GV43" t="n">
+      <c r="GV43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GW43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -27488,11 +27617,14 @@
       <c r="GU44" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="GV44" t="n">
+      <c r="GV44" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="GW44" t="n">
+        <v>131</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -28104,11 +28236,14 @@
       <c r="GU45" s="1" t="n">
         <v>178</v>
       </c>
-      <c r="GV45" t="n">
+      <c r="GV45" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="GW45" t="n">
+        <v>145</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -28720,11 +28855,14 @@
       <c r="GU46" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="GV46" t="n">
+      <c r="GV46" s="1" t="n">
         <v>174</v>
       </c>
+      <c r="GW46" t="n">
+        <v>190</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -29336,11 +29474,14 @@
       <c r="GU47" s="1" t="n">
         <v>74.8</v>
       </c>
-      <c r="GV47" t="n">
+      <c r="GV47" s="1" t="n">
         <v>61.7</v>
       </c>
+      <c r="GW47" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -29952,11 +30093,14 @@
       <c r="GU48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GV48" t="n">
+      <c r="GV48" s="1" t="n">
         <v>40</v>
       </c>
+      <c r="GW48" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -30568,11 +30712,14 @@
       <c r="GU49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GV49" t="n">
+      <c r="GV49" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GW49" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -31184,11 +31331,14 @@
       <c r="GU50" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GV50" t="n">
+      <c r="GV50" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="GW50" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -31800,11 +31950,14 @@
       <c r="GU51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GV51" t="n">
+      <c r="GV51" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="GW51" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -32416,11 +32569,14 @@
       <c r="GU52" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GV52" t="n">
+      <c r="GV52" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="GW52" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -33032,11 +33188,14 @@
       <c r="GU53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="GV53" t="n">
+      <c r="GV53" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="GW53" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -33648,11 +33807,14 @@
       <c r="GU54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GV54" t="n">
+      <c r="GV54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GW54" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -34264,11 +34426,14 @@
       <c r="GU55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GV55" t="n">
+      <c r="GV55" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GW55" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -34880,11 +35045,14 @@
       <c r="GU56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="GV56" t="n">
+      <c r="GV56" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="GW56" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -35496,11 +35664,14 @@
       <c r="GU57" s="1" t="n">
         <v>170</v>
       </c>
-      <c r="GV57" t="n">
+      <c r="GV57" s="1" t="n">
         <v>159</v>
       </c>
+      <c r="GW57" t="n">
+        <v>162</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -36112,11 +36283,14 @@
       <c r="GU58" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="GV58" t="n">
+      <c r="GV58" s="1" t="n">
         <v>87</v>
       </c>
+      <c r="GW58" t="n">
+        <v>70</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -36728,11 +36902,14 @@
       <c r="GU59" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="GV59" t="n">
+      <c r="GV59" s="1" t="n">
         <v>246</v>
       </c>
+      <c r="GW59" t="n">
+        <v>232</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -37344,11 +37521,14 @@
       <c r="GU60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="GV60" t="n">
+      <c r="GV60" s="1" t="n">
         <v>1.83</v>
       </c>
+      <c r="GW60" t="n">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -37960,11 +38140,14 @@
       <c r="GU61" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="GV61" t="n">
+      <c r="GV61" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="GW61" t="n">
+        <v>71</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -38576,11 +38759,14 @@
       <c r="GU62" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="GV62" t="n">
+      <c r="GV62" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="GW62" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -39192,11 +39378,14 @@
       <c r="GU63" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GV63" t="n">
+      <c r="GV63" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="GW63" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -39808,11 +39997,14 @@
       <c r="GU64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="GV64" t="n">
+      <c r="GV64" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="GW64" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -40424,11 +40616,14 @@
       <c r="GU65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="GV65" t="n">
+      <c r="GV65" s="1" t="n">
         <v>20</v>
       </c>
+      <c r="GW65" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -41040,11 +41235,14 @@
       <c r="GU66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="GV66" t="n">
+      <c r="GV66" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GW66" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -41656,11 +41854,14 @@
       <c r="GU67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GV67" t="n">
+      <c r="GV67" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GW67" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -42272,11 +42473,14 @@
       <c r="GU68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GV68" t="n">
+      <c r="GV68" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GW68" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -42888,11 +43092,14 @@
       <c r="GU69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GV69" t="n">
+      <c r="GV69" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="GW69" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -43504,11 +43711,14 @@
       <c r="GU70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="GV70" t="n">
+      <c r="GV70" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="GW70" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -44120,11 +44330,14 @@
       <c r="GU71" s="1" t="n">
         <v>52.6</v>
       </c>
-      <c r="GV71" t="n">
+      <c r="GV71" s="1" t="n">
         <v>42.9</v>
       </c>
+      <c r="GW71" t="n">
+        <v>63.6</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -44736,11 +44949,14 @@
       <c r="GU72" s="1" t="n">
         <v>29.5</v>
       </c>
-      <c r="GV72" t="n">
+      <c r="GV72" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="GW72" t="n">
+        <v>33.14</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -45352,11 +45568,14 @@
       <c r="GU73" s="1" t="n">
         <v>15.53</v>
       </c>
-      <c r="GV73" t="n">
+      <c r="GV73" s="1" t="n">
         <v>17.57</v>
       </c>
+      <c r="GW73" t="n">
+        <v>21.09</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -45968,11 +46187,14 @@
       <c r="GU74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GV74" t="n">
+      <c r="GV74" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GW74" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -46584,11 +46806,14 @@
       <c r="GU75" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="GV75" t="n">
+      <c r="GV75" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="GW75" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -47200,11 +47425,14 @@
       <c r="GU76" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GV76" t="n">
+      <c r="GV76" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="GW76" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -47816,11 +48044,14 @@
       <c r="GU77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="GV77" t="n">
+      <c r="GV77" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="GW77" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -48432,11 +48663,14 @@
       <c r="GU78" s="1" t="n">
         <v>2.32</v>
       </c>
-      <c r="GV78" t="n">
+      <c r="GV78" s="1" t="n">
         <v>2.43</v>
       </c>
+      <c r="GW78" t="n">
+        <v>2.55</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -49048,11 +49282,14 @@
       <c r="GU79" s="1" t="n">
         <v>4.4</v>
       </c>
-      <c r="GV79" t="n">
+      <c r="GV79" s="1" t="n">
         <v>5.67</v>
       </c>
+      <c r="GW79" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -49664,11 +49901,14 @@
       <c r="GU80" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="GV80" t="n">
+      <c r="GV80" s="1" t="n">
         <v>29.4</v>
       </c>
+      <c r="GW80" t="n">
+        <v>28.6</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -50280,11 +50520,14 @@
       <c r="GU81" s="1" t="n">
         <v>22.7</v>
       </c>
-      <c r="GV81" t="n">
+      <c r="GV81" s="1" t="n">
         <v>17.6</v>
       </c>
+      <c r="GW81" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -50896,11 +51139,14 @@
       <c r="GU82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="GV82" t="n">
+      <c r="GV82" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="GW82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -51512,11 +51758,14 @@
       <c r="GU83" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="GV83" t="n">
+      <c r="GV83" s="1" t="n">
         <v>88.5</v>
       </c>
+      <c r="GW83" t="n">
+        <v>86</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -52128,11 +52377,14 @@
       <c r="GU84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="GV84" t="n">
+      <c r="GV84" s="1" t="n">
         <v>27</v>
       </c>
+      <c r="GW84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -52744,11 +52996,14 @@
       <c r="GU85" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="GV85" t="n">
+      <c r="GV85" s="1" t="n">
         <v>129.6</v>
       </c>
+      <c r="GW85" t="n">
+        <v>71</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -53360,11 +53615,14 @@
       <c r="GU86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="GV86" t="n">
+      <c r="GV86" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="GW86" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -53976,11 +54234,14 @@
       <c r="GU87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GV87" t="n">
+      <c r="GV87" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="GW87" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -54592,11 +54853,14 @@
       <c r="GU88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GV88" t="n">
+      <c r="GV88" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GW88" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -55208,11 +55472,14 @@
       <c r="GU89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GV89" t="n">
+      <c r="GV89" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="GW89" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -55824,11 +56091,14 @@
       <c r="GU90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="GV90" t="n">
+      <c r="GV90" s="1" t="n">
         <v>118</v>
       </c>
+      <c r="GW90" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -56440,11 +56710,14 @@
       <c r="GU91" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="GV91" t="n">
+      <c r="GV91" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="GW91" t="n">
+        <v>125</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -57056,11 +57329,14 @@
       <c r="GU92" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="GV92" t="n">
+      <c r="GV92" s="1" t="n">
         <v>151</v>
       </c>
+      <c r="GW92" t="n">
+        <v>166</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -57672,11 +57948,14 @@
       <c r="GU93" s="1" t="n">
         <v>72.90000000000001</v>
       </c>
-      <c r="GV93" t="n">
+      <c r="GV93" s="1" t="n">
         <v>61.4</v>
       </c>
+      <c r="GW93" t="n">
+        <v>71.59999999999999</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -58288,11 +58567,14 @@
       <c r="GU94" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="GV94" t="n">
+      <c r="GV94" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="GW94" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -58904,11 +59186,14 @@
       <c r="GU95" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GV95" t="n">
+      <c r="GV95" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="GW95" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -59520,11 +59805,14 @@
       <c r="GU96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="GV96" t="n">
+      <c r="GV96" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="GW96" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -60136,11 +60424,14 @@
       <c r="GU97" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GV97" t="n">
+      <c r="GV97" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="GW97" t="n">
+        <v>22</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -60752,11 +61043,14 @@
       <c r="GU98" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="GV98" t="n">
+      <c r="GV98" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="GW98" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -61368,11 +61662,14 @@
       <c r="GU99" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="GV99" t="n">
+      <c r="GV99" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="GW99" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -61984,11 +62281,14 @@
       <c r="GU100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GV100" t="n">
+      <c r="GV100" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="GW100" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -62600,11 +62900,14 @@
       <c r="GU101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GV101" t="n">
+      <c r="GV101" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="GW101" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -63216,13 +63519,16 @@
       <c r="GU102" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GV102" t="n">
+      <c r="GV102" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="GW102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Brisbane_stats.xlsx
+++ b/Brisbane_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:GX102"/>
+  <dimension ref="A1:HA102"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GR90" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="GS98" activeCellId="0" pane="topLeft" sqref="GS98"/>
@@ -1006,8 +1006,17 @@
       <c r="GW1" s="1" t="n">
         <v>10150</v>
       </c>
-      <c r="GX1" t="n">
+      <c r="GX1" s="1" t="n">
         <v>10187</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>10209</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>10220</v>
+      </c>
+      <c r="HA1" t="n">
+        <v>10234</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="2" s="2">
@@ -1628,7 +1637,16 @@
       <c r="GW2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="GX2" t="n">
+      <c r="GX2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GY2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="GZ2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HA2" t="n">
         <v>2020</v>
       </c>
     </row>
@@ -2250,8 +2268,17 @@
       <c r="GW3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX3" t="n">
+      <c r="GX3" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GY3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="4" s="2">
@@ -2872,8 +2899,17 @@
       <c r="GW4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GX4" t="n">
+      <c r="GX4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GY4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="5" s="2">
@@ -3494,8 +3530,17 @@
       <c r="GW5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GX5" t="n">
+      <c r="GX5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="GY5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="6" s="2">
@@ -4116,8 +4161,17 @@
       <c r="GW6" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="GX6" t="n">
+      <c r="GX6" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="GY6" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="GZ6" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="HA6" t="n">
+        <v>53</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="7" s="2">
@@ -4738,8 +4792,17 @@
       <c r="GW7" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="GX7" t="n">
+      <c r="GX7" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="GY7" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="GZ7" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="HA7" t="n">
+        <v>49</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="8" s="2">
@@ -5360,8 +5423,17 @@
       <c r="GW8" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="GX8" t="n">
+      <c r="GX8" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="GY8" s="1" t="n">
+        <v>-27</v>
+      </c>
+      <c r="GZ8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HA8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="9" s="2">
@@ -5982,7 +6054,16 @@
       <c r="GW9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX9" t="n">
+      <c r="GX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6604,8 +6685,17 @@
       <c r="GW10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX10" t="n">
+      <c r="GX10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="GZ10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="11" s="2">
@@ -7226,8 +7316,17 @@
       <c r="GW11" s="1" t="n">
         <v>199</v>
       </c>
-      <c r="GX11" t="n">
+      <c r="GX11" s="1" t="n">
         <v>171</v>
+      </c>
+      <c r="GY11" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="GZ11" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="HA11" t="n">
+        <v>188</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="12" s="2">
@@ -7848,7 +7947,16 @@
       <c r="GW12" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="GX12" t="n">
+      <c r="GX12" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="GY12" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="GZ12" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="HA12" t="n">
         <v>103</v>
       </c>
     </row>
@@ -8470,8 +8578,17 @@
       <c r="GW13" s="1" t="n">
         <v>285</v>
       </c>
-      <c r="GX13" t="n">
+      <c r="GX13" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="GY13" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="GZ13" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="HA13" t="n">
+        <v>291</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="14" s="2">
@@ -9092,8 +9209,17 @@
       <c r="GW14" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="GX14" t="n">
+      <c r="GX14" s="1" t="n">
         <v>1.66</v>
+      </c>
+      <c r="GY14" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="GZ14" s="1" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="HA14" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="15" s="2">
@@ -9714,8 +9840,17 @@
       <c r="GW15" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="GX15" t="n">
+      <c r="GX15" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="GY15" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="GZ15" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="HA15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="16" s="2">
@@ -10336,8 +10471,17 @@
       <c r="GW16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="GX16" t="n">
+      <c r="GX16" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="GY16" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="GZ16" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HA16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="17" s="2">
@@ -10958,8 +11102,17 @@
       <c r="GW17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="GX17" t="n">
+      <c r="GX17" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="GY17" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="GZ17" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HA17" t="n">
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="18" s="2">
@@ -11580,8 +11733,17 @@
       <c r="GW18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="GX18" t="n">
+      <c r="GX18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="GY18" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ18" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HA18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="19" s="2">
@@ -12202,8 +12364,17 @@
       <c r="GW19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GX19" t="n">
+      <c r="GX19" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GY19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ19" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HA19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="20" s="2">
@@ -12824,8 +12995,17 @@
       <c r="GW20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="GX20" t="n">
+      <c r="GX20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GY20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ20" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HA20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="21" s="2">
@@ -13446,8 +13626,17 @@
       <c r="GW21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GX21" t="n">
+      <c r="GX21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ21" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="22" s="2">
@@ -14068,8 +14257,17 @@
       <c r="GW22" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="GX22" t="n">
+      <c r="GX22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="GY22" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HA22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="23" s="2">
@@ -14690,8 +14888,17 @@
       <c r="GW23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX23" t="n">
+      <c r="GX23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="GY23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="24" s="2">
@@ -15312,8 +15519,17 @@
       <c r="GW24" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="GX24" t="n">
+      <c r="GX24" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="GY24" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="GZ24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="25" s="2">
@@ -15934,8 +16150,17 @@
       <c r="GW25" s="1" t="n">
         <v>30.3</v>
       </c>
-      <c r="GX25" t="n">
+      <c r="GX25" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="GY25" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="GZ25" s="1" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="HA25" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="26" s="2">
@@ -16556,8 +16781,17 @@
       <c r="GW26" s="1" t="n">
         <v>28.5</v>
       </c>
-      <c r="GX26" t="n">
+      <c r="GX26" s="1" t="n">
         <v>22.83</v>
+      </c>
+      <c r="GY26" s="1" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="GZ26" s="1" t="n">
+        <v>21.46</v>
+      </c>
+      <c r="HA26" t="n">
+        <v>41.57</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="27" s="2">
@@ -17178,8 +17412,17 @@
       <c r="GW27" s="1" t="n">
         <v>8.640000000000001</v>
       </c>
-      <c r="GX27" t="n">
+      <c r="GX27" s="1" t="n">
         <v>10.96</v>
+      </c>
+      <c r="GY27" s="1" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="GZ27" s="1" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="HA27" t="n">
+        <v>16.17</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="28" s="2">
@@ -17800,8 +18043,17 @@
       <c r="GW28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="GX28" t="n">
+      <c r="GX28" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="GY28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="GZ28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HA28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="29" s="2">
@@ -18422,8 +18674,17 @@
       <c r="GW29" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GX29" t="n">
+      <c r="GX29" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="GY29" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="GZ29" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA29" t="n">
+        <v>49</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="30" s="2">
@@ -19044,8 +19305,17 @@
       <c r="GW30" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GX30" t="n">
+      <c r="GX30" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="GY30" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="GZ30" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HA30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="31" s="2">
@@ -19666,8 +19936,17 @@
       <c r="GW31" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="GX31" t="n">
+      <c r="GX31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="GY31" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="GZ31" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="HA31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="32" s="2">
@@ -20288,8 +20567,17 @@
       <c r="GW32" s="1" t="n">
         <v>1.82</v>
       </c>
-      <c r="GX32" t="n">
+      <c r="GX32" s="1" t="n">
         <v>1.92</v>
+      </c>
+      <c r="GY32" s="1" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="GZ32" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="HA32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="33" s="2">
@@ -20910,8 +21198,17 @@
       <c r="GW33" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX33" t="n">
+      <c r="GX33" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY33" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="GZ33" s="1" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="HA33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="34" s="2">
@@ -21532,8 +21829,17 @@
       <c r="GW34" s="1" t="n">
         <v>53.3</v>
       </c>
-      <c r="GX34" t="n">
+      <c r="GX34" s="1" t="n">
         <v>45.8</v>
+      </c>
+      <c r="GY34" s="1" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="GZ34" s="1" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="HA34" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="35" s="2">
@@ -22154,8 +22460,17 @@
       <c r="GW35" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="GX35" t="n">
+      <c r="GX35" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="GY35" s="1" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="GZ35" s="1" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="HA35" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="36" s="2">
@@ -22776,8 +23091,17 @@
       <c r="GW36" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="GX36" t="n">
+      <c r="GX36" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="GY36" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="GZ36" s="1" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="HA36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="37" s="2">
@@ -23398,8 +23722,17 @@
       <c r="GW37" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="GX37" t="n">
+      <c r="GX37" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="GY37" s="1" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="GZ37" s="1" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="HA37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="38" s="2">
@@ -24020,8 +24353,17 @@
       <c r="GW38" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="GX38" t="n">
+      <c r="GX38" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="GY38" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="GZ38" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HA38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="39" s="2">
@@ -24642,8 +24984,17 @@
       <c r="GW39" s="1" t="n">
         <v>98.5</v>
       </c>
-      <c r="GX39" t="n">
+      <c r="GX39" s="1" t="n">
         <v>99.59999999999999</v>
+      </c>
+      <c r="GY39" s="1" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="GZ39" s="1" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="HA39" t="n">
+        <v>100.5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="40" s="2">
@@ -25264,8 +25615,17 @@
       <c r="GW40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX40" t="n">
+      <c r="GX40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ40" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="41" s="2">
@@ -25886,8 +26246,17 @@
       <c r="GW41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX41" t="n">
+      <c r="GX41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="GY41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="42" s="2">
@@ -26508,7 +26877,16 @@
       <c r="GW42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="GX42" t="n">
+      <c r="GX42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GY42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -27130,7 +27508,16 @@
       <c r="GW43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX43" t="n">
+      <c r="GX43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -27752,8 +28139,17 @@
       <c r="GW44" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="GX44" t="n">
+      <c r="GX44" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="GY44" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="GZ44" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="HA44" t="n">
+        <v>125</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="45" s="2">
@@ -28374,8 +28770,17 @@
       <c r="GW45" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="GX45" t="n">
+      <c r="GX45" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="GY45" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="GZ45" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="HA45" t="n">
+        <v>164</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="46" s="2">
@@ -28996,8 +29401,17 @@
       <c r="GW46" s="1" t="n">
         <v>190</v>
       </c>
-      <c r="GX46" t="n">
+      <c r="GX46" s="1" t="n">
         <v>198</v>
+      </c>
+      <c r="GY46" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="GZ46" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="HA46" t="n">
+        <v>194</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="47" s="2">
@@ -29618,8 +30032,17 @@
       <c r="GW47" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="GX47" t="n">
+      <c r="GX47" s="1" t="n">
         <v>72.3</v>
+      </c>
+      <c r="GY47" s="1" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="GZ47" s="1" t="n">
+        <v>73.09999999999999</v>
+      </c>
+      <c r="HA47" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="48" s="2">
@@ -30240,8 +30663,17 @@
       <c r="GW48" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="GX48" t="n">
+      <c r="GX48" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="GY48" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="GZ48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA48" t="n">
+        <v>49</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="49" s="2">
@@ -30862,8 +31294,17 @@
       <c r="GW49" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GX49" t="n">
+      <c r="GX49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="GY49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ49" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="50" s="2">
@@ -31484,8 +31925,17 @@
       <c r="GW50" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="GX50" t="n">
+      <c r="GX50" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GY50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HA50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="51" s="2">
@@ -32106,8 +32556,17 @@
       <c r="GW51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="GX51" t="n">
+      <c r="GX51" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="GY51" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="GZ51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HA51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="52" s="2">
@@ -32728,8 +33187,17 @@
       <c r="GW52" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="GX52" t="n">
+      <c r="GX52" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="GY52" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="GZ52" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HA52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="53" s="2">
@@ -33350,8 +33818,17 @@
       <c r="GW53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="GX53" t="n">
+      <c r="GX53" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="GY53" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="GZ53" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="HA53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="54" s="2">
@@ -33972,8 +34449,17 @@
       <c r="GW54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GX54" t="n">
+      <c r="GX54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="GY54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="55" s="2">
@@ -34594,8 +35080,17 @@
       <c r="GW55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="GX55" t="n">
+      <c r="GX55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY55" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="56" s="2">
@@ -35216,8 +35711,17 @@
       <c r="GW56" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="GX56" t="n">
+      <c r="GX56" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="GY56" s="1" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="GZ56" s="1" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HA56" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="57" s="2">
@@ -35838,8 +36342,17 @@
       <c r="GW57" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="GX57" t="n">
+      <c r="GX57" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="GY57" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="GZ57" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="HA57" t="n">
+        <v>155</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="58" s="2">
@@ -36460,8 +36973,17 @@
       <c r="GW58" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="GX58" t="n">
+      <c r="GX58" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="GY58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="GZ58" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="HA58" t="n">
+        <v>109</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="59" s="2">
@@ -37082,8 +37604,17 @@
       <c r="GW59" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="GX59" t="n">
+      <c r="GX59" s="1" t="n">
         <v>263</v>
+      </c>
+      <c r="GY59" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="GZ59" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="HA59" t="n">
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="60" s="2">
@@ -37704,8 +38235,17 @@
       <c r="GW60" s="1" t="n">
         <v>2.31</v>
       </c>
-      <c r="GX60" t="n">
+      <c r="GX60" s="1" t="n">
         <v>1.33</v>
+      </c>
+      <c r="GY60" s="1" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="GZ60" s="1" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="HA60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="61" s="2">
@@ -38326,8 +38866,17 @@
       <c r="GW61" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="GX61" t="n">
+      <c r="GX61" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="GY61" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="GZ61" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HA61" t="n">
+        <v>51</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="62" s="2">
@@ -38948,8 +39497,17 @@
       <c r="GW62" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="GX62" t="n">
+      <c r="GX62" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="GY62" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="GZ62" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HA62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="63" s="2">
@@ -39570,8 +40128,17 @@
       <c r="GW63" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="GX63" t="n">
+      <c r="GX63" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="GY63" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="GZ63" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HA63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="64" s="2">
@@ -40192,8 +40759,17 @@
       <c r="GW64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="GX64" t="n">
+      <c r="GX64" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="GY64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="GZ64" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HA64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="65" s="2">
@@ -40814,8 +41390,17 @@
       <c r="GW65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="GX65" t="n">
+      <c r="GX65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="GY65" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="GZ65" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HA65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="66" s="2">
@@ -41436,8 +42021,17 @@
       <c r="GW66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="GX66" t="n">
+      <c r="GX66" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="GZ66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HA66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="67" s="2">
@@ -42058,7 +42652,16 @@
       <c r="GW67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX67" t="n">
+      <c r="GX67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA67" t="n">
         <v>4</v>
       </c>
     </row>
@@ -42680,8 +43283,17 @@
       <c r="GW68" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX68" t="n">
+      <c r="GX68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="GY68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="69" s="2">
@@ -43302,8 +43914,17 @@
       <c r="GW69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="GX69" t="n">
+      <c r="GX69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="GY69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="GZ69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="70" s="2">
@@ -43924,8 +44545,17 @@
       <c r="GW70" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="GX70" t="n">
+      <c r="GX70" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="GY70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="GZ70" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HA70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="71" s="2">
@@ -44546,8 +45176,17 @@
       <c r="GW71" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="GX71" t="n">
+      <c r="GX71" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="GY71" s="1" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="GZ71" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="HA71" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="72" s="2">
@@ -45168,8 +45807,17 @@
       <c r="GW72" s="1" t="n">
         <v>33.14</v>
       </c>
-      <c r="GX72" t="n">
+      <c r="GX72" s="1" t="n">
         <v>43.83</v>
+      </c>
+      <c r="GY72" s="1" t="n">
+        <v>28.64</v>
+      </c>
+      <c r="GZ72" s="1" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="HA72" t="n">
+        <v>37.71</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="73" s="2">
@@ -45790,8 +46438,17 @@
       <c r="GW73" s="1" t="n">
         <v>21.09</v>
       </c>
-      <c r="GX73" t="n">
+      <c r="GX73" s="1" t="n">
         <v>14.61</v>
+      </c>
+      <c r="GY73" s="1" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="GZ73" s="1" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="HA73" t="n">
+        <v>18.86</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="74" s="2">
@@ -46412,8 +47069,17 @@
       <c r="GW74" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="GX74" t="n">
+      <c r="GX74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="GY74" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA74" t="n">
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="75" s="2">
@@ -47034,8 +47700,17 @@
       <c r="GW75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GX75" t="n">
+      <c r="GX75" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="GY75" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="GZ75" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HA75" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="76" s="2">
@@ -47656,8 +48331,17 @@
       <c r="GW76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="GX76" t="n">
+      <c r="GX76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="GY76" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="GZ76" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HA76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="77" s="2">
@@ -48278,8 +48962,17 @@
       <c r="GW77" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="GX77" t="n">
+      <c r="GX77" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="GY77" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="GZ77" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HA77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="78" s="2">
@@ -48900,8 +49593,17 @@
       <c r="GW78" s="1" t="n">
         <v>2.55</v>
       </c>
-      <c r="GX78" t="n">
+      <c r="GX78" s="1" t="n">
         <v>1.94</v>
+      </c>
+      <c r="GY78" s="1" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="GZ78" s="1" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="HA78" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="79" s="2">
@@ -49522,8 +50224,17 @@
       <c r="GW79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX79" t="n">
+      <c r="GX79" s="1" t="n">
         <v>5.83</v>
+      </c>
+      <c r="GY79" s="1" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="GZ79" s="1" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="HA79" t="n">
+        <v>5.86</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="80" s="2">
@@ -50144,8 +50855,17 @@
       <c r="GW80" s="1" t="n">
         <v>28.6</v>
       </c>
-      <c r="GX80" t="n">
+      <c r="GX80" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="GY80" s="1" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="GZ80" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HA80" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="81" s="2">
@@ -50766,7 +51486,16 @@
       <c r="GW81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="GX81" t="n">
+      <c r="GX81" s="1" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="GY81" s="1" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="GZ81" s="1" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HA81" t="n">
         <v>17.1</v>
       </c>
     </row>
@@ -51388,8 +52117,17 @@
       <c r="GW82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="GX82" t="n">
+      <c r="GX82" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="GY82" s="1" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="GZ82" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="HA82" t="n">
+        <v>187</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="83" s="2">
@@ -52010,8 +52748,17 @@
       <c r="GW83" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="GX83" t="n">
+      <c r="GX83" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="GY83" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="GZ83" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HA83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="84" s="2">
@@ -52632,8 +53379,17 @@
       <c r="GW84" s="1" t="n">
         <v>24.66</v>
       </c>
-      <c r="GX84" t="n">
+      <c r="GX84" s="1" t="n">
         <v>26.66</v>
+      </c>
+      <c r="GY84" s="1" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="GZ84" s="1" t="n">
+        <v>25.41</v>
+      </c>
+      <c r="HA84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="85" s="2">
@@ -53254,8 +54010,17 @@
       <c r="GW85" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="GX85" t="n">
+      <c r="GX85" s="1" t="n">
         <v>122.6</v>
+      </c>
+      <c r="GY85" s="1" t="n">
+        <v>135.3</v>
+      </c>
+      <c r="GZ85" s="1" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="HA85" t="n">
+        <v>95.40000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="86" s="2">
@@ -53876,7 +54641,16 @@
       <c r="GW86" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="GX86" t="n">
+      <c r="GX86" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GY86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="GZ86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HA86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -54498,8 +55272,17 @@
       <c r="GW87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GX87" t="n">
+      <c r="GX87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="GY87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="GZ87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="88" s="2">
@@ -55120,7 +55903,16 @@
       <c r="GW88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="GX88" t="n">
+      <c r="GX88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -55742,8 +56534,17 @@
       <c r="GW89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX89" t="n">
+      <c r="GX89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="GY89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="GZ89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HA89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="90" s="2">
@@ -56364,8 +57165,17 @@
       <c r="GW90" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="GX90" t="n">
+      <c r="GX90" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="GY90" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="GZ90" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="HA90" t="n">
+        <v>120</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="91" s="2">
@@ -56986,8 +57796,17 @@
       <c r="GW91" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="GX91" t="n">
+      <c r="GX91" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="GY91" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="GZ91" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="HA91" t="n">
+        <v>142</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="92" s="2">
@@ -57608,8 +58427,17 @@
       <c r="GW92" s="1" t="n">
         <v>166</v>
       </c>
-      <c r="GX92" t="n">
+      <c r="GX92" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="GY92" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="GZ92" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="HA92" t="n">
+        <v>182</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="93" s="2">
@@ -58230,8 +59058,17 @@
       <c r="GW93" s="1" t="n">
         <v>71.59999999999999</v>
       </c>
-      <c r="GX93" t="n">
+      <c r="GX93" s="1" t="n">
         <v>71.5</v>
+      </c>
+      <c r="GY93" s="1" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="GZ93" s="1" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="HA93" t="n">
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="94" s="2">
@@ -58852,8 +59689,17 @@
       <c r="GW94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="GX94" t="n">
+      <c r="GX94" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="GY94" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="GZ94" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="HA94" t="n">
+        <v>50</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="95" s="2">
@@ -59474,8 +60320,17 @@
       <c r="GW95" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="GX95" t="n">
+      <c r="GX95" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY95" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GZ95" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="96" s="2">
@@ -60096,8 +60951,17 @@
       <c r="GW96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX96" t="n">
+      <c r="GX96" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="GY96" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="GZ96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HA96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="97" s="2">
@@ -60718,8 +61582,17 @@
       <c r="GW97" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="GX97" t="n">
+      <c r="GX97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="GY97" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="GZ97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HA97" t="n">
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="98" s="2">
@@ -61340,8 +62213,17 @@
       <c r="GW98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="GX98" t="n">
+      <c r="GX98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="GY98" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="GZ98" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HA98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="99" s="2">
@@ -61962,8 +62844,17 @@
       <c r="GW99" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="GX99" t="n">
+      <c r="GX99" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="GY99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="GZ99" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HA99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="100" s="2">
@@ -62584,8 +63475,17 @@
       <c r="GW100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="GX100" t="n">
+      <c r="GX100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="GY100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ100" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HA100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="13.8" r="101" s="2">
@@ -63206,7 +64106,16 @@
       <c r="GW101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="GX101" t="n">
+      <c r="GX101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="GY101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="GZ101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HA101" t="n">
         <v>4</v>
       </c>
     </row>
@@ -63828,8 +64737,17 @@
       <c r="GW102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="GX102" t="n">
+      <c r="GX102" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="GY102" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="GZ102" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="HA102" t="n">
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>

--- a/Brisbane_stats.xlsx
+++ b/Brisbane_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HA102"/>
+  <dimension ref="A1:HB102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GR90" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="GS98" activeCellId="0" pane="topLeft" sqref="GS98"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GR90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GS98" activeCellId="0" sqref="GS98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
+    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.8" r="1" s="2">
+    <row r="1" ht="13.8" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1015,11 +1015,14 @@
       <c r="GZ1" s="1" t="n">
         <v>10220</v>
       </c>
-      <c r="HA1" t="n">
+      <c r="HA1" s="1" t="n">
         <v>10234</v>
       </c>
+      <c r="HB1" t="n">
+        <v>10239</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="2" s="2">
+    <row r="2" ht="13.8" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1646,11 +1649,14 @@
       <c r="GZ2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HA2" t="n">
+      <c r="HA2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HB2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="3" s="2">
+    <row r="3" ht="13.8" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2277,11 +2283,14 @@
       <c r="GZ3" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HA3" t="n">
+      <c r="HA3" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="HB3" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="4" s="2">
+    <row r="4" ht="13.8" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2908,11 +2917,14 @@
       <c r="GZ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA4" t="n">
+      <c r="HA4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HB4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="5" s="2">
+    <row r="5" ht="13.8" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3539,11 +3551,14 @@
       <c r="GZ5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA5" t="n">
+      <c r="HA5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HB5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="6" s="2">
+    <row r="6" ht="13.8" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4170,11 +4185,14 @@
       <c r="GZ6" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="HA6" t="n">
+      <c r="HA6" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="HB6" t="n">
+        <v>91</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="7" s="2">
+    <row r="7" ht="13.8" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4801,11 +4819,14 @@
       <c r="GZ7" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HA7" t="n">
+      <c r="HA7" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HB7" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="8" s="2">
+    <row r="8" ht="13.8" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5432,11 +5453,14 @@
       <c r="GZ8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HA8" t="n">
+      <c r="HA8" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB8" t="n">
+        <v>63</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="9" s="2">
+    <row r="9" ht="13.8" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6063,11 +6087,14 @@
       <c r="GZ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA9" t="n">
+      <c r="HA9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HB9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="10" s="2">
+    <row r="10" ht="13.8" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6694,11 +6721,14 @@
       <c r="GZ10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HA10" t="n">
+      <c r="HA10" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HB10" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="11" s="2">
+    <row r="11" ht="13.8" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7325,11 +7355,14 @@
       <c r="GZ11" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="HA11" t="n">
+      <c r="HA11" s="1" t="n">
         <v>188</v>
       </c>
+      <c r="HB11" t="n">
+        <v>210</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="12" s="2">
+    <row r="12" ht="13.8" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -7956,11 +7989,14 @@
       <c r="GZ12" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="HA12" t="n">
+      <c r="HA12" s="1" t="n">
         <v>103</v>
       </c>
+      <c r="HB12" t="n">
+        <v>107</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="13" s="2">
+    <row r="13" ht="13.8" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8587,11 +8623,14 @@
       <c r="GZ13" s="1" t="n">
         <v>279</v>
       </c>
-      <c r="HA13" t="n">
+      <c r="HA13" s="1" t="n">
         <v>291</v>
       </c>
+      <c r="HB13" t="n">
+        <v>317</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="14" s="2">
+    <row r="14" ht="13.8" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9218,11 +9257,14 @@
       <c r="GZ14" s="1" t="n">
         <v>2.28</v>
       </c>
-      <c r="HA14" t="n">
+      <c r="HA14" s="1" t="n">
         <v>1.83</v>
       </c>
+      <c r="HB14" t="n">
+        <v>1.96</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="15" s="2">
+    <row r="15" ht="13.8" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9849,11 +9891,14 @@
       <c r="GZ15" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="HA15" t="n">
+      <c r="HA15" s="1" t="n">
         <v>79</v>
       </c>
+      <c r="HB15" t="n">
+        <v>99</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="16" s="2">
+    <row r="16" ht="13.8" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10480,11 +10525,14 @@
       <c r="GZ16" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HA16" t="n">
+      <c r="HA16" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="HB16" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="17" s="2">
+    <row r="17" ht="13.8" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11111,11 +11159,14 @@
       <c r="GZ17" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HA17" t="n">
+      <c r="HA17" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="HB17" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="18" s="2">
+    <row r="18" ht="13.8" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11742,11 +11793,14 @@
       <c r="GZ18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HA18" t="n">
+      <c r="HA18" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HB18" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="19" s="2">
+    <row r="19" ht="13.8" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12373,11 +12427,14 @@
       <c r="GZ19" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HA19" t="n">
+      <c r="HA19" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HB19" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="20" s="2">
+    <row r="20" ht="13.8" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13004,11 +13061,14 @@
       <c r="GZ20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HA20" t="n">
+      <c r="HA20" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HB20" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="21" s="2">
+    <row r="21" ht="13.8" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13635,11 +13695,14 @@
       <c r="GZ21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HA21" t="n">
+      <c r="HA21" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB21" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="22" s="2">
+    <row r="22" ht="13.8" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14266,11 +14329,14 @@
       <c r="GZ22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HA22" t="n">
+      <c r="HA22" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HB22" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="23" s="2">
+    <row r="23" ht="13.8" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -14897,11 +14963,14 @@
       <c r="GZ23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA23" t="n">
+      <c r="HA23" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HB23" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="24" s="2">
+    <row r="24" ht="13.8" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15528,11 +15597,14 @@
       <c r="GZ24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HA24" t="n">
+      <c r="HA24" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="HB24" t="n">
+        <v>21</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="25" s="2">
+    <row r="25" ht="13.8" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16159,11 +16231,14 @@
       <c r="GZ25" s="1" t="n">
         <v>56.5</v>
       </c>
-      <c r="HA25" t="n">
+      <c r="HA25" s="1" t="n">
         <v>38.9</v>
       </c>
+      <c r="HB25" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="26" s="2">
+    <row r="26" ht="13.8" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16790,11 +16865,14 @@
       <c r="GZ26" s="1" t="n">
         <v>21.46</v>
       </c>
-      <c r="HA26" t="n">
+      <c r="HA26" s="1" t="n">
         <v>41.57</v>
       </c>
+      <c r="HB26" t="n">
+        <v>22.64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="27" s="2">
+    <row r="27" ht="13.8" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17421,11 +17499,14 @@
       <c r="GZ27" s="1" t="n">
         <v>12.13</v>
       </c>
-      <c r="HA27" t="n">
+      <c r="HA27" s="1" t="n">
         <v>16.17</v>
       </c>
+      <c r="HB27" t="n">
+        <v>15.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="28" s="2">
+    <row r="28" ht="13.8" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18052,11 +18133,14 @@
       <c r="GZ28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HA28" t="n">
+      <c r="HA28" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="HB28" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="29" s="2">
+    <row r="29" ht="13.8" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18683,11 +18767,14 @@
       <c r="GZ29" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HA29" t="n">
+      <c r="HA29" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HB29" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="30" s="2">
+    <row r="30" ht="13.8" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19314,11 +19401,14 @@
       <c r="GZ30" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HA30" t="n">
+      <c r="HA30" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="HB30" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="31" s="2">
+    <row r="31" ht="13.8" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -19945,11 +20035,14 @@
       <c r="GZ31" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HA31" t="n">
+      <c r="HA31" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HB31" t="n">
+        <v>37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="32" s="2">
+    <row r="32" ht="13.8" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20576,11 +20669,14 @@
       <c r="GZ32" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="HA32" t="n">
+      <c r="HA32" s="1" t="n">
         <v>2.33</v>
       </c>
+      <c r="HB32" t="n">
+        <v>1.76</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="33" s="2">
+    <row r="33" ht="13.8" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21207,11 +21303,14 @@
       <c r="GZ33" s="1" t="n">
         <v>4.31</v>
       </c>
-      <c r="HA33" t="n">
+      <c r="HA33" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HB33" t="n">
+        <v>2.64</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="34" s="2">
+    <row r="34" ht="13.8" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -21838,11 +21937,14 @@
       <c r="GZ34" s="1" t="n">
         <v>39.3</v>
       </c>
-      <c r="HA34" t="n">
+      <c r="HA34" s="1" t="n">
         <v>38.1</v>
       </c>
+      <c r="HB34" t="n">
+        <v>54.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="35" s="2">
+    <row r="35" ht="13.8" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22469,11 +22571,14 @@
       <c r="GZ35" s="1" t="n">
         <v>23.2</v>
       </c>
-      <c r="HA35" t="n">
+      <c r="HA35" s="1" t="n">
         <v>16.7</v>
       </c>
+      <c r="HB35" t="n">
+        <v>37.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="36" s="2">
+    <row r="36" ht="13.8" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23100,11 +23205,14 @@
       <c r="GZ36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="HA36" t="n">
+      <c r="HA36" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="HB36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="37" s="2">
+    <row r="37" ht="13.8" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23731,11 +23839,14 @@
       <c r="GZ37" s="1" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="HA37" t="n">
+      <c r="HA37" s="1" t="n">
         <v>88.09999999999999</v>
       </c>
+      <c r="HB37" t="n">
+        <v>88.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="38" s="2">
+    <row r="38" ht="13.8" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -24362,11 +24473,14 @@
       <c r="GZ38" s="1" t="n">
         <v>25.74</v>
       </c>
-      <c r="HA38" t="n">
+      <c r="HA38" s="1" t="n">
         <v>25.41</v>
       </c>
+      <c r="HB38" t="n">
+        <v>24.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="39" s="2">
+    <row r="39" ht="13.8" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -24993,11 +25107,14 @@
       <c r="GZ39" s="1" t="n">
         <v>107.5</v>
       </c>
-      <c r="HA39" t="n">
+      <c r="HA39" s="1" t="n">
         <v>100.5</v>
       </c>
+      <c r="HB39" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="40" s="2">
+    <row r="40" ht="13.8" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25624,11 +25741,14 @@
       <c r="GZ40" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HA40" t="n">
+      <c r="HA40" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HB40" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="41" s="2">
+    <row r="41" ht="13.8" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26255,11 +26375,14 @@
       <c r="GZ41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA41" t="n">
+      <c r="HA41" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HB41" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="42" s="2">
+    <row r="42" ht="13.8" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -26886,11 +27009,14 @@
       <c r="GZ42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA42" t="n">
+      <c r="HA42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HB42" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="43" s="2">
+    <row r="43" ht="13.8" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -27517,11 +27643,14 @@
       <c r="GZ43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA43" t="n">
+      <c r="HA43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HB43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="44" s="2">
+    <row r="44" ht="13.8" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28148,11 +28277,14 @@
       <c r="GZ44" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HA44" t="n">
+      <c r="HA44" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="HB44" t="n">
+        <v>125</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="45" s="2">
+    <row r="45" ht="13.8" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -28779,11 +28911,14 @@
       <c r="GZ45" s="1" t="n">
         <v>172</v>
       </c>
-      <c r="HA45" t="n">
+      <c r="HA45" s="1" t="n">
         <v>164</v>
       </c>
+      <c r="HB45" t="n">
+        <v>195</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="46" s="2">
+    <row r="46" ht="13.8" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -29410,11 +29545,14 @@
       <c r="GZ46" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="HA46" t="n">
+      <c r="HA46" s="1" t="n">
         <v>194</v>
       </c>
+      <c r="HB46" t="n">
+        <v>245</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="47" s="2">
+    <row r="47" ht="13.8" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30041,11 +30179,14 @@
       <c r="GZ47" s="1" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="HA47" t="n">
+      <c r="HA47" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="HB47" t="n">
+        <v>77.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="48" s="2">
+    <row r="48" ht="13.8" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -30672,11 +30813,14 @@
       <c r="GZ48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HA48" t="n">
+      <c r="HA48" s="1" t="n">
         <v>49</v>
       </c>
+      <c r="HB48" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="49" s="2">
+    <row r="49" ht="13.8" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -31303,11 +31447,14 @@
       <c r="GZ49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HA49" t="n">
+      <c r="HA49" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HB49" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="50" s="2">
+    <row r="50" ht="13.8" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -31934,11 +32081,14 @@
       <c r="GZ50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HA50" t="n">
+      <c r="HA50" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HB50" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="51" s="2">
+    <row r="51" ht="13.8" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -32565,11 +32715,14 @@
       <c r="GZ51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="HA51" t="n">
+      <c r="HA51" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="HB51" t="n">
+        <v>29</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="52" s="2">
+    <row r="52" ht="13.8" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -33196,11 +33349,14 @@
       <c r="GZ52" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HA52" t="n">
+      <c r="HA52" s="1" t="n">
         <v>31</v>
       </c>
+      <c r="HB52" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="53" s="2">
+    <row r="53" ht="13.8" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -33827,11 +33983,14 @@
       <c r="GZ53" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="HA53" t="n">
+      <c r="HA53" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="HB53" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="54" s="2">
+    <row r="54" ht="13.8" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -34458,11 +34617,14 @@
       <c r="GZ54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA54" t="n">
+      <c r="HA54" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HB54" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="55" s="2">
+    <row r="55" ht="13.8" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -35089,11 +35251,14 @@
       <c r="GZ55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HA55" t="n">
+      <c r="HA55" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB55" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="56" s="2">
+    <row r="56" ht="13.8" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -35720,11 +35885,14 @@
       <c r="GZ56" s="1" t="n">
         <v>53.8</v>
       </c>
-      <c r="HA56" t="n">
+      <c r="HA56" s="1" t="n">
         <v>57.1</v>
       </c>
+      <c r="HB56" t="n">
+        <v>78.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="57" s="2">
+    <row r="57" ht="13.8" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -36351,11 +36519,14 @@
       <c r="GZ57" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="HA57" t="n">
+      <c r="HA57" s="1" t="n">
         <v>155</v>
       </c>
+      <c r="HB57" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="58" s="2">
+    <row r="58" ht="13.8" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -36982,11 +37153,14 @@
       <c r="GZ58" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="HA58" t="n">
+      <c r="HA58" s="1" t="n">
         <v>109</v>
       </c>
+      <c r="HB58" t="n">
+        <v>108</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="59" s="2">
+    <row r="59" ht="13.8" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -37613,11 +37787,14 @@
       <c r="GZ59" s="1" t="n">
         <v>287</v>
       </c>
-      <c r="HA59" t="n">
+      <c r="HA59" s="1" t="n">
         <v>264</v>
       </c>
+      <c r="HB59" t="n">
+        <v>248</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="60" s="2">
+    <row r="60" ht="13.8" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -38244,11 +38421,14 @@
       <c r="GZ60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="HA60" t="n">
+      <c r="HA60" s="1" t="n">
         <v>1.42</v>
       </c>
+      <c r="HB60" t="n">
+        <v>1.3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="61" s="2">
+    <row r="61" ht="13.8" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -38875,11 +39055,14 @@
       <c r="GZ61" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HA61" t="n">
+      <c r="HA61" s="1" t="n">
         <v>51</v>
       </c>
+      <c r="HB61" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="62" s="2">
+    <row r="62" ht="13.8" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -39506,11 +39689,14 @@
       <c r="GZ62" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HA62" t="n">
+      <c r="HA62" s="1" t="n">
         <v>52</v>
       </c>
+      <c r="HB62" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="63" s="2">
+    <row r="63" ht="13.8" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -40137,11 +40323,14 @@
       <c r="GZ63" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HA63" t="n">
+      <c r="HA63" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="HB63" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="64" s="2">
+    <row r="64" ht="13.8" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -40768,11 +40957,14 @@
       <c r="GZ64" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="HA64" t="n">
+      <c r="HA64" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HB64" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="65" s="2">
+    <row r="65" ht="13.8" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -41399,11 +41591,14 @@
       <c r="GZ65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HA65" t="n">
+      <c r="HA65" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="HB65" t="n">
+        <v>24</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="66" s="2">
+    <row r="66" ht="13.8" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -42030,11 +42225,14 @@
       <c r="GZ66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HA66" t="n">
+      <c r="HA66" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HB66" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="67" s="2">
+    <row r="67" ht="13.8" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -42661,11 +42859,14 @@
       <c r="GZ67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA67" t="n">
+      <c r="HA67" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB67" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="68" s="2">
+    <row r="68" ht="13.8" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -43292,11 +43493,14 @@
       <c r="GZ68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HA68" t="n">
+      <c r="HA68" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HB68" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="69" s="2">
+    <row r="69" ht="13.8" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -43923,11 +44127,14 @@
       <c r="GZ69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HA69" t="n">
+      <c r="HA69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HB69" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="70" s="2">
+    <row r="70" ht="13.8" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -44554,11 +44761,14 @@
       <c r="GZ70" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HA70" t="n">
+      <c r="HA70" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HB70" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="71" s="2">
+    <row r="71" ht="13.8" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -45185,11 +45395,14 @@
       <c r="GZ71" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="HA71" t="n">
+      <c r="HA71" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HB71" t="n">
+        <v>23.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="72" s="2">
+    <row r="72" ht="13.8" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -45816,11 +46029,14 @@
       <c r="GZ72" s="1" t="n">
         <v>28.7</v>
       </c>
-      <c r="HA72" t="n">
+      <c r="HA72" s="1" t="n">
         <v>37.71</v>
       </c>
+      <c r="HB72" t="n">
+        <v>82.67</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="73" s="2">
+    <row r="73" ht="13.8" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -46447,11 +46663,14 @@
       <c r="GZ73" s="1" t="n">
         <v>15.94</v>
       </c>
-      <c r="HA73" t="n">
+      <c r="HA73" s="1" t="n">
         <v>18.86</v>
       </c>
+      <c r="HB73" t="n">
+        <v>19.08</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="74" s="2">
+    <row r="74" ht="13.8" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -47078,11 +47297,14 @@
       <c r="GZ74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HA74" t="n">
+      <c r="HA74" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="HB74" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="75" s="2">
+    <row r="75" ht="13.8" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -47709,11 +47931,14 @@
       <c r="GZ75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HA75" t="n">
+      <c r="HA75" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HB75" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="76" s="2">
+    <row r="76" ht="13.8" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -48340,11 +48565,14 @@
       <c r="GZ76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HA76" t="n">
+      <c r="HA76" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HB76" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="77" s="2">
+    <row r="77" ht="13.8" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -48971,11 +49199,14 @@
       <c r="GZ77" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HA77" t="n">
+      <c r="HA77" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HB77" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="78" s="2">
+    <row r="78" ht="13.8" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -49602,11 +49833,14 @@
       <c r="GZ78" s="1" t="n">
         <v>1.89</v>
       </c>
-      <c r="HA78" t="n">
+      <c r="HA78" s="1" t="n">
         <v>2.93</v>
       </c>
+      <c r="HB78" t="n">
+        <v>3.23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="79" s="2">
+    <row r="79" ht="13.8" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -50233,11 +50467,14 @@
       <c r="GZ79" s="1" t="n">
         <v>3.4</v>
       </c>
-      <c r="HA79" t="n">
+      <c r="HA79" s="1" t="n">
         <v>5.86</v>
       </c>
+      <c r="HB79" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="80" s="2">
+    <row r="80" ht="13.8" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -50864,11 +51101,14 @@
       <c r="GZ80" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HA80" t="n">
+      <c r="HA80" s="1" t="n">
         <v>31.7</v>
       </c>
+      <c r="HB80" t="n">
+        <v>28.6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="81" s="2">
+    <row r="81" ht="13.8" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -51495,11 +51735,14 @@
       <c r="GZ81" s="1" t="n">
         <v>29.4</v>
       </c>
-      <c r="HA81" t="n">
+      <c r="HA81" s="1" t="n">
         <v>17.1</v>
       </c>
+      <c r="HB81" t="n">
+        <v>7.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="82" s="2">
+    <row r="82" ht="13.8" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -52126,11 +52369,14 @@
       <c r="GZ82" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HA82" t="n">
+      <c r="HA82" s="1" t="n">
         <v>187</v>
       </c>
+      <c r="HB82" t="n">
+        <v>186</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="83" s="2">
+    <row r="83" ht="13.8" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -52757,11 +53003,14 @@
       <c r="GZ83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HA83" t="n">
+      <c r="HA83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HB83" t="n">
+        <v>85.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="84" s="2">
+    <row r="84" ht="13.8" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -53388,11 +53637,14 @@
       <c r="GZ84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HA84" t="n">
+      <c r="HA84" s="1" t="n">
         <v>25.66</v>
       </c>
+      <c r="HB84" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="85" s="2">
+    <row r="85" ht="13.8" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -54019,11 +54271,14 @@
       <c r="GZ85" s="1" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="HA85" t="n">
+      <c r="HA85" s="1" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="HB85" t="n">
+        <v>77.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="86" s="2">
+    <row r="86" ht="13.8" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -54650,11 +54905,14 @@
       <c r="GZ86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HA86" t="n">
+      <c r="HA86" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HB86" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="87" s="2">
+    <row r="87" ht="13.8" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -55281,11 +55539,14 @@
       <c r="GZ87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HA87" t="n">
+      <c r="HA87" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="HB87" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="88" s="2">
+    <row r="88" ht="13.8" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -55912,11 +56173,14 @@
       <c r="GZ88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HA88" t="n">
+      <c r="HA88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB88" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="89" s="2">
+    <row r="89" ht="13.8" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -56543,11 +56807,14 @@
       <c r="GZ89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HA89" t="n">
+      <c r="HA89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HB89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="90" s="2">
+    <row r="90" ht="13.8" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -57174,11 +57441,14 @@
       <c r="GZ90" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="HA90" t="n">
+      <c r="HA90" s="1" t="n">
         <v>120</v>
       </c>
+      <c r="HB90" t="n">
+        <v>110</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="91" s="2">
+    <row r="91" ht="13.8" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -57805,11 +58075,14 @@
       <c r="GZ91" s="1" t="n">
         <v>162</v>
       </c>
-      <c r="HA91" t="n">
+      <c r="HA91" s="1" t="n">
         <v>142</v>
       </c>
+      <c r="HB91" t="n">
+        <v>133</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="92" s="2">
+    <row r="92" ht="13.8" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -58436,11 +58709,14 @@
       <c r="GZ92" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="HA92" t="n">
+      <c r="HA92" s="1" t="n">
         <v>182</v>
       </c>
+      <c r="HB92" t="n">
+        <v>169</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="93" s="2">
+    <row r="93" ht="13.8" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -59067,11 +59343,14 @@
       <c r="GZ93" s="1" t="n">
         <v>71.09999999999999</v>
       </c>
-      <c r="HA93" t="n">
+      <c r="HA93" s="1" t="n">
         <v>68.90000000000001</v>
       </c>
+      <c r="HB93" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="94" s="2">
+    <row r="94" ht="13.8" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -59698,11 +59977,14 @@
       <c r="GZ94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="HA94" t="n">
+      <c r="HA94" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HB94" t="n">
+        <v>46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="95" s="2">
+    <row r="95" ht="13.8" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -60329,11 +60611,14 @@
       <c r="GZ95" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA95" t="n">
+      <c r="HA95" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HB95" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="96" s="2">
+    <row r="96" ht="13.8" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -60960,11 +61245,14 @@
       <c r="GZ96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HA96" t="n">
+      <c r="HA96" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HB96" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="97" s="2">
+    <row r="97" ht="13.8" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -61591,11 +61879,14 @@
       <c r="GZ97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HA97" t="n">
+      <c r="HA97" s="1" t="n">
         <v>22</v>
       </c>
+      <c r="HB97" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="98" s="2">
+    <row r="98" ht="13.8" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -62222,11 +62513,14 @@
       <c r="GZ98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HA98" t="n">
+      <c r="HA98" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="HB98" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="99" s="2">
+    <row r="99" ht="13.8" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -62853,11 +63147,14 @@
       <c r="GZ99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HA99" t="n">
+      <c r="HA99" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="HB99" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="100" s="2">
+    <row r="100" ht="13.8" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -63484,11 +63781,14 @@
       <c r="GZ100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HA100" t="n">
+      <c r="HA100" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HB100" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="101" s="2">
+    <row r="101" ht="13.8" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -64115,11 +64415,14 @@
       <c r="GZ101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HA101" t="n">
+      <c r="HA101" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HB101" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.8" r="102" s="2">
+    <row r="102" ht="13.8" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -64746,13 +65049,16 @@
       <c r="GZ102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="HA102" t="n">
+      <c r="HA102" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="HB102" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Brisbane_stats.xlsx
+++ b/Brisbane_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,18 +377,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HB102"/>
+  <dimension ref="A1:HE102"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="GR90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GS98" activeCellId="0" sqref="GS98"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="GR90" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="GS98" activeCellId="0" pane="topLeft" sqref="GS98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="8.529999999999999" customWidth="1" style="1" min="1" max="1025"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="8.529999999999999"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1018,11 +1018,20 @@
       <c r="HA1" s="1" t="n">
         <v>10234</v>
       </c>
-      <c r="HB1" t="n">
+      <c r="HB1" s="1" t="n">
         <v>10239</v>
       </c>
+      <c r="HC1" s="1" t="n">
+        <v>10246</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>10253</v>
+      </c>
+      <c r="HE1" t="n">
+        <v>10262</v>
+      </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="2" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1652,11 +1661,20 @@
       <c r="HA2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="HB2" t="n">
+      <c r="HB2" s="1" t="n">
         <v>2020</v>
       </c>
+      <c r="HC2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HD2" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="3" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2286,11 +2304,20 @@
       <c r="HA3" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HB3" t="n">
+      <c r="HB3" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="4" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -2920,11 +2947,20 @@
       <c r="HA4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB4" t="n">
+      <c r="HB4" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="5" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3554,11 +3590,20 @@
       <c r="HA5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB5" t="n">
+      <c r="HB5" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="6" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4188,11 +4233,20 @@
       <c r="HA6" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="HB6" t="n">
+      <c r="HB6" s="1" t="n">
         <v>91</v>
       </c>
+      <c r="HC6" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HD6" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="HE6" t="n">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="7" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -4822,11 +4876,20 @@
       <c r="HA7" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HB7" t="n">
+      <c r="HB7" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="HC7" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="HD7" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="HE7" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="8" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -5456,11 +5519,20 @@
       <c r="HA8" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB8" t="n">
+      <c r="HB8" s="1" t="n">
         <v>63</v>
       </c>
+      <c r="HC8" s="1" t="n">
+        <v>-41</v>
+      </c>
+      <c r="HD8" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HE8" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="9" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6090,11 +6162,20 @@
       <c r="HA9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB9" t="n">
+      <c r="HB9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="10" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -6724,11 +6805,20 @@
       <c r="HA10" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HB10" t="n">
+      <c r="HB10" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HC10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HD10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="11" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -7358,11 +7448,20 @@
       <c r="HA11" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="HB11" t="n">
+      <c r="HB11" s="1" t="n">
         <v>210</v>
       </c>
+      <c r="HC11" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HD11" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="HE11" t="n">
+        <v>167</v>
+      </c>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="12" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -7992,11 +8091,20 @@
       <c r="HA12" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="HB12" t="n">
+      <c r="HB12" s="1" t="n">
         <v>107</v>
       </c>
+      <c r="HC12" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="HD12" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="HE12" t="n">
+        <v>98</v>
+      </c>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="13" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -8626,11 +8734,20 @@
       <c r="HA13" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="HB13" t="n">
+      <c r="HB13" s="1" t="n">
         <v>317</v>
       </c>
+      <c r="HC13" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="HD13" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="HE13" t="n">
+        <v>265</v>
+      </c>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="14" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -9260,11 +9377,20 @@
       <c r="HA14" s="1" t="n">
         <v>1.83</v>
       </c>
-      <c r="HB14" t="n">
+      <c r="HB14" s="1" t="n">
         <v>1.96</v>
       </c>
+      <c r="HC14" s="1" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="HD14" s="1" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="HE14" t="n">
+        <v>1.7</v>
+      </c>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="15" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -9894,11 +10020,20 @@
       <c r="HA15" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="HB15" t="n">
+      <c r="HB15" s="1" t="n">
         <v>99</v>
       </c>
+      <c r="HC15" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="HD15" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="HE15" t="n">
+        <v>82</v>
+      </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="16" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -10528,11 +10663,20 @@
       <c r="HA16" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HB16" t="n">
+      <c r="HB16" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="HC16" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HD16" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HE16" t="n">
+        <v>49</v>
+      </c>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="17" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -11162,11 +11306,20 @@
       <c r="HA17" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HB17" t="n">
+      <c r="HB17" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HC17" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HD17" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="HE17" t="n">
+        <v>36</v>
+      </c>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="18" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -11796,11 +11949,20 @@
       <c r="HA18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HB18" t="n">
+      <c r="HB18" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HC18" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HD18" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE18" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="19" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -12430,11 +12592,20 @@
       <c r="HA19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HB19" t="n">
+      <c r="HB19" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HC19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD19" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HE19" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="20" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -13064,11 +13235,20 @@
       <c r="HA20" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB20" t="n">
+      <c r="HB20" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HC20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD20" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="HE20" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="21" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -13698,11 +13878,20 @@
       <c r="HA21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB21" t="n">
+      <c r="HB21" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HC21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD21" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE21" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="22" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="22" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -14332,11 +14521,20 @@
       <c r="HA22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HB22" t="n">
+      <c r="HB22" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC22" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="HD22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE22" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row r="23" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="23" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -14966,11 +15164,20 @@
       <c r="HA23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HB23" t="n">
+      <c r="HB23" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="24" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -15600,11 +15807,20 @@
       <c r="HA24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HB24" t="n">
+      <c r="HB24" s="1" t="n">
         <v>21</v>
       </c>
+      <c r="HC24" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="HD24" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row r="25" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="25" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -16234,11 +16450,20 @@
       <c r="HA25" s="1" t="n">
         <v>38.9</v>
       </c>
-      <c r="HB25" t="n">
+      <c r="HB25" s="1" t="n">
         <v>66.7</v>
       </c>
+      <c r="HC25" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="HD25" s="1" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="HE25" t="n">
+        <v>38.9</v>
+      </c>
     </row>
-    <row r="26" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="26" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -16868,11 +17093,20 @@
       <c r="HA26" s="1" t="n">
         <v>41.57</v>
       </c>
-      <c r="HB26" t="n">
+      <c r="HB26" s="1" t="n">
         <v>22.64</v>
       </c>
+      <c r="HC26" s="1" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HD26" s="1" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="HE26" t="n">
+        <v>37.86</v>
+      </c>
     </row>
-    <row r="27" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="27" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -17502,11 +17736,20 @@
       <c r="HA27" s="1" t="n">
         <v>16.17</v>
       </c>
-      <c r="HB27" t="n">
+      <c r="HB27" s="1" t="n">
         <v>15.1</v>
       </c>
+      <c r="HC27" s="1" t="n">
+        <v>14.19</v>
+      </c>
+      <c r="HD27" s="1" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="HE27" t="n">
+        <v>14.72</v>
+      </c>
     </row>
-    <row r="28" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="28" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -18136,11 +18379,20 @@
       <c r="HA28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HB28" t="n">
+      <c r="HB28" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HC28" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE28" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="29" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -18770,11 +19022,20 @@
       <c r="HA29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HB29" t="n">
+      <c r="HB29" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HC29" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HD29" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE29" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="30" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="30" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -19404,11 +19665,20 @@
       <c r="HA30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HB30" t="n">
+      <c r="HB30" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HC30" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD30" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE30" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="31" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="31" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -20038,11 +20308,20 @@
       <c r="HA31" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HB31" t="n">
+      <c r="HB31" s="1" t="n">
         <v>37</v>
       </c>
+      <c r="HC31" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="HD31" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="HE31" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row r="32" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="32" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -20672,11 +20951,20 @@
       <c r="HA32" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="HB32" t="n">
+      <c r="HB32" s="1" t="n">
         <v>1.76</v>
       </c>
+      <c r="HC32" s="1" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="HD32" s="1" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="HE32" t="n">
+        <v>2.61</v>
+      </c>
     </row>
-    <row r="33" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="33" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -21306,11 +21594,20 @@
       <c r="HA33" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB33" t="n">
+      <c r="HB33" s="1" t="n">
         <v>2.64</v>
       </c>
+      <c r="HC33" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD33" s="1" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="HE33" t="n">
+        <v>6.71</v>
+      </c>
     </row>
-    <row r="34" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="34" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -21940,11 +22237,20 @@
       <c r="HA34" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="HB34" t="n">
+      <c r="HB34" s="1" t="n">
         <v>54.1</v>
       </c>
+      <c r="HC34" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="HD34" s="1" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="HE34" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="35" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="35" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -22574,11 +22880,20 @@
       <c r="HA35" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="HB35" t="n">
+      <c r="HB35" s="1" t="n">
         <v>37.8</v>
       </c>
+      <c r="HC35" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HD35" s="1" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="HE35" t="n">
+        <v>14.9</v>
+      </c>
     </row>
-    <row r="36" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="36" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -23208,11 +23523,20 @@
       <c r="HA36" s="1" t="n">
         <v>188.6</v>
       </c>
-      <c r="HB36" t="n">
+      <c r="HB36" s="1" t="n">
         <v>188.6</v>
       </c>
+      <c r="HC36" s="1" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="HD36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="HE36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
-    <row r="37" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="37" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -23842,11 +24166,20 @@
       <c r="HA37" s="1" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="HB37" t="n">
+      <c r="HB37" s="1" t="n">
         <v>88.59999999999999</v>
       </c>
+      <c r="HC37" s="1" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="HD37" s="1" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="HE37" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row r="38" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="38" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -24476,11 +24809,20 @@
       <c r="HA38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="HB38" t="n">
+      <c r="HB38" s="1" t="n">
         <v>24.8</v>
       </c>
+      <c r="HC38" s="1" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="HD38" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HE38" t="n">
+        <v>25.49</v>
+      </c>
     </row>
-    <row r="39" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="39" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -25110,11 +25452,20 @@
       <c r="HA39" s="1" t="n">
         <v>100.5</v>
       </c>
-      <c r="HB39" t="n">
+      <c r="HB39" s="1" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="HC39" s="1" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="HD39" s="1" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="HE39" t="n">
+        <v>96.5</v>
+      </c>
     </row>
-    <row r="40" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="40" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -25744,11 +26095,20 @@
       <c r="HA40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HB40" t="n">
+      <c r="HB40" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HC40" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE40" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="41" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -26378,11 +26738,20 @@
       <c r="HA41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB41" t="n">
+      <c r="HB41" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="HC41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE41" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="42" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="42" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -27012,11 +27381,20 @@
       <c r="HA42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB42" t="n">
+      <c r="HB42" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE42" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="43" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="43" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -27646,11 +28024,20 @@
       <c r="HA43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HB43" t="n">
+      <c r="HB43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HE43" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="44" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="44" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -28280,11 +28667,20 @@
       <c r="HA44" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="HB44" t="n">
+      <c r="HB44" s="1" t="n">
         <v>125</v>
       </c>
+      <c r="HC44" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="HD44" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="HE44" t="n">
+        <v>114</v>
+      </c>
     </row>
-    <row r="45" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="45" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -28914,11 +29310,20 @@
       <c r="HA45" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="HB45" t="n">
+      <c r="HB45" s="1" t="n">
         <v>195</v>
       </c>
+      <c r="HC45" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="HD45" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="HE45" t="n">
+        <v>151</v>
+      </c>
     </row>
-    <row r="46" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="46" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -29548,11 +29953,20 @@
       <c r="HA46" s="1" t="n">
         <v>194</v>
       </c>
-      <c r="HB46" t="n">
+      <c r="HB46" s="1" t="n">
         <v>245</v>
       </c>
+      <c r="HC46" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="HD46" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="HE46" t="n">
+        <v>182</v>
+      </c>
     </row>
-    <row r="47" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="47" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -30182,11 +30596,20 @@
       <c r="HA47" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HB47" t="n">
+      <c r="HB47" s="1" t="n">
         <v>77.3</v>
       </c>
+      <c r="HC47" s="1" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="HD47" s="1" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="HE47" t="n">
+        <v>68.7</v>
+      </c>
     </row>
-    <row r="48" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="48" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -30816,11 +31239,20 @@
       <c r="HA48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HB48" t="n">
+      <c r="HB48" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="HC48" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="HD48" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE48" t="n">
+        <v>42</v>
+      </c>
     </row>
-    <row r="49" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="49" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -31450,11 +31882,20 @@
       <c r="HA49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HB49" t="n">
+      <c r="HB49" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE49" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="50" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="50" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -32084,11 +32525,20 @@
       <c r="HA50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB50" t="n">
+      <c r="HB50" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="HC50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HD50" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE50" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="51" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="51" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -32718,11 +33168,20 @@
       <c r="HA51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="HB51" t="n">
+      <c r="HB51" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="HC51" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD51" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE51" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row r="52" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="52" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -33352,11 +33811,20 @@
       <c r="HA52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HB52" t="n">
+      <c r="HB52" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="HC52" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="HD52" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="HE52" t="n">
+        <v>27</v>
+      </c>
     </row>
-    <row r="53" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="53" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -33986,11 +34454,20 @@
       <c r="HA53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HB53" t="n">
+      <c r="HB53" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="HC53" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="HD53" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="HE53" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="54" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="54" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -34620,11 +35097,20 @@
       <c r="HA54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HB54" t="n">
+      <c r="HB54" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="HC54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HE54" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="55" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -35254,11 +35740,20 @@
       <c r="HA55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB55" t="n">
+      <c r="HB55" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="HC55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD55" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE55" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="56" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -35888,11 +36383,20 @@
       <c r="HA56" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="HB56" t="n">
+      <c r="HB56" s="1" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="HC56" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="HD56" s="1" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="HE56" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
-    <row r="57" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="57" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -36522,11 +37026,20 @@
       <c r="HA57" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="HB57" t="n">
+      <c r="HB57" s="1" t="n">
         <v>140</v>
       </c>
+      <c r="HC57" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="HD57" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="HE57" t="n">
+        <v>171</v>
+      </c>
     </row>
-    <row r="58" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="58" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -37156,11 +37669,20 @@
       <c r="HA58" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="HB58" t="n">
+      <c r="HB58" s="1" t="n">
         <v>108</v>
       </c>
+      <c r="HC58" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="HD58" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="HE58" t="n">
+        <v>137</v>
+      </c>
     </row>
-    <row r="59" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="59" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -37790,11 +38312,20 @@
       <c r="HA59" s="1" t="n">
         <v>264</v>
       </c>
-      <c r="HB59" t="n">
+      <c r="HB59" s="1" t="n">
         <v>248</v>
       </c>
+      <c r="HC59" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="HD59" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="HE59" t="n">
+        <v>308</v>
+      </c>
     </row>
-    <row r="60" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="60" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -38424,11 +38955,20 @@
       <c r="HA60" s="1" t="n">
         <v>1.42</v>
       </c>
-      <c r="HB60" t="n">
+      <c r="HB60" s="1" t="n">
         <v>1.3</v>
       </c>
+      <c r="HC60" s="1" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="HD60" s="1" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="HE60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
-    <row r="61" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="61" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -39058,11 +39598,20 @@
       <c r="HA61" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HB61" t="n">
+      <c r="HB61" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="HC61" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="HD61" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="HE61" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="62" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="62" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -39692,11 +40241,20 @@
       <c r="HA62" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="HB62" t="n">
+      <c r="HB62" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="HC62" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="HD62" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HE62" t="n">
+        <v>50</v>
+      </c>
     </row>
-    <row r="63" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="63" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -40326,11 +40884,20 @@
       <c r="HA63" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HB63" t="n">
+      <c r="HB63" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HC63" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HD63" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="HE63" t="n">
+        <v>25</v>
+      </c>
     </row>
-    <row r="64" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="64" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -40960,11 +41527,20 @@
       <c r="HA64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="HB64" t="n">
+      <c r="HB64" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="HC64" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD64" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HE64" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row r="65" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="65" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -41594,11 +42170,20 @@
       <c r="HA65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HB65" t="n">
+      <c r="HB65" s="1" t="n">
         <v>24</v>
       </c>
+      <c r="HC65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="HD65" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HE65" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="66" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="66" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -42228,11 +42813,20 @@
       <c r="HA66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB66" t="n">
+      <c r="HB66" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HC66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HD66" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HE66" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row r="67" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="67" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -42862,11 +43456,20 @@
       <c r="HA67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB67" t="n">
+      <c r="HB67" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HC67" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD67" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE67" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="68" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -43496,11 +44099,20 @@
       <c r="HA68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB68" t="n">
+      <c r="HB68" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC68" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HD68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HE68" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row r="69" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="69" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -44130,11 +44742,20 @@
       <c r="HA69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HB69" t="n">
+      <c r="HB69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="HC69" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE69" t="n">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="70" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -44764,11 +45385,20 @@
       <c r="HA70" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HB70" t="n">
+      <c r="HB70" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="HC70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="HD70" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="HE70" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="71" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="71" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -45398,11 +46028,20 @@
       <c r="HA71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HB71" t="n">
+      <c r="HB71" s="1" t="n">
         <v>23.1</v>
       </c>
+      <c r="HC71" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="HD71" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HE71" t="n">
+        <v>66.7</v>
+      </c>
     </row>
-    <row r="72" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="72" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -46032,11 +46671,20 @@
       <c r="HA72" s="1" t="n">
         <v>37.71</v>
       </c>
-      <c r="HB72" t="n">
+      <c r="HB72" s="1" t="n">
         <v>82.67</v>
       </c>
+      <c r="HC72" s="1" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="HD72" s="1" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="HE72" t="n">
+        <v>38.5</v>
+      </c>
     </row>
-    <row r="73" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="73" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -46666,11 +47314,20 @@
       <c r="HA73" s="1" t="n">
         <v>18.86</v>
       </c>
-      <c r="HB73" t="n">
+      <c r="HB73" s="1" t="n">
         <v>19.08</v>
       </c>
+      <c r="HC73" s="1" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="HD73" s="1" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="HE73" t="n">
+        <v>25.67</v>
+      </c>
     </row>
-    <row r="74" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="74" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -47300,11 +47957,20 @@
       <c r="HA74" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HB74" t="n">
+      <c r="HB74" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HC74" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HD74" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HE74" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="75" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="75" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -47934,11 +48600,20 @@
       <c r="HA75" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HB75" t="n">
+      <c r="HB75" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="HC75" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="HD75" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HE75" t="n">
+        <v>44</v>
+      </c>
     </row>
-    <row r="76" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="76" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -48568,11 +49243,20 @@
       <c r="HA76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HB76" t="n">
+      <c r="HB76" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HC76" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HD76" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HE76" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row r="77" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="77" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -49202,11 +49886,20 @@
       <c r="HA77" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HB77" t="n">
+      <c r="HB77" s="1" t="n">
         <v>42</v>
       </c>
+      <c r="HC77" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HD77" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="HE77" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row r="78" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="78" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -49836,11 +50529,20 @@
       <c r="HA78" s="1" t="n">
         <v>2.93</v>
       </c>
-      <c r="HB78" t="n">
+      <c r="HB78" s="1" t="n">
         <v>3.23</v>
       </c>
+      <c r="HC78" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HD78" s="1" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="HE78" t="n">
+        <v>2.92</v>
+      </c>
     </row>
-    <row r="79" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="79" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -50470,11 +51172,20 @@
       <c r="HA79" s="1" t="n">
         <v>5.86</v>
       </c>
-      <c r="HB79" t="n">
+      <c r="HB79" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="HC79" s="1" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="HD79" s="1" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="HE79" t="n">
+        <v>4.38</v>
+      </c>
     </row>
-    <row r="80" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="80" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -51104,11 +51815,20 @@
       <c r="HA80" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="HB80" t="n">
+      <c r="HB80" s="1" t="n">
         <v>28.6</v>
       </c>
+      <c r="HC80" s="1" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="HD80" s="1" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="HE80" t="n">
+        <v>34.3</v>
+      </c>
     </row>
-    <row r="81" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="81" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -51738,11 +52458,20 @@
       <c r="HA81" s="1" t="n">
         <v>17.1</v>
       </c>
-      <c r="HB81" t="n">
+      <c r="HB81" s="1" t="n">
         <v>7.1</v>
       </c>
+      <c r="HC81" s="1" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HD81" s="1" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="HE81" t="n">
+        <v>22.9</v>
+      </c>
     </row>
-    <row r="82" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="82" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -52372,11 +53101,20 @@
       <c r="HA82" s="1" t="n">
         <v>187</v>
       </c>
-      <c r="HB82" t="n">
+      <c r="HB82" s="1" t="n">
         <v>186</v>
       </c>
+      <c r="HC82" s="1" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="HD82" s="1" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="HE82" t="n">
+        <v>189.6</v>
+      </c>
     </row>
-    <row r="83" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="83" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -53006,11 +53744,20 @@
       <c r="HA83" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="HB83" t="n">
+      <c r="HB83" s="1" t="n">
         <v>85.5</v>
       </c>
+      <c r="HC83" s="1" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="HD83" s="1" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="HE83" t="n">
+        <v>86.40000000000001</v>
+      </c>
     </row>
-    <row r="84" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="84" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -53640,11 +54387,20 @@
       <c r="HA84" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="HB84" t="n">
+      <c r="HB84" s="1" t="n">
         <v>25</v>
       </c>
+      <c r="HC84" s="1" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="HD84" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="HE84" t="n">
+        <v>24.49</v>
+      </c>
     </row>
-    <row r="85" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="85" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -54274,11 +55030,20 @@
       <c r="HA85" s="1" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="HB85" t="n">
+      <c r="HB85" s="1" t="n">
         <v>77.09999999999999</v>
       </c>
+      <c r="HC85" s="1" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="HD85" s="1" t="n">
+        <v>82.2</v>
+      </c>
+      <c r="HE85" t="n">
+        <v>68.09999999999999</v>
+      </c>
     </row>
-    <row r="86" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="86" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -54908,11 +55673,20 @@
       <c r="HA86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HB86" t="n">
+      <c r="HB86" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="HC86" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="HD86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE86" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row r="87" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="87" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -55542,11 +56316,20 @@
       <c r="HA87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HB87" t="n">
+      <c r="HB87" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC87" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="HD87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="HE87" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="88" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="88" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -56176,11 +56959,20 @@
       <c r="HA88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB88" t="n">
+      <c r="HB88" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="HC88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HD88" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HE88" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row r="89" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="89" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -56810,11 +57602,20 @@
       <c r="HA89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HB89" t="n">
+      <c r="HB89" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="HC89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HD89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HE89" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="90" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -57444,11 +58245,20 @@
       <c r="HA90" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HB90" t="n">
+      <c r="HB90" s="1" t="n">
         <v>110</v>
       </c>
+      <c r="HC90" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="HD90" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="HE90" t="n">
+        <v>116</v>
+      </c>
     </row>
-    <row r="91" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="91" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -58078,11 +58888,20 @@
       <c r="HA91" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="HB91" t="n">
+      <c r="HB91" s="1" t="n">
         <v>133</v>
       </c>
+      <c r="HC91" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="HD91" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="HE91" t="n">
+        <v>182</v>
+      </c>
     </row>
-    <row r="92" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="92" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -58712,11 +59531,20 @@
       <c r="HA92" s="1" t="n">
         <v>182</v>
       </c>
-      <c r="HB92" t="n">
+      <c r="HB92" s="1" t="n">
         <v>169</v>
       </c>
+      <c r="HC92" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="HD92" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="HE92" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="93" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="93" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -59346,11 +60174,20 @@
       <c r="HA93" s="1" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="HB93" t="n">
+      <c r="HB93" s="1" t="n">
         <v>68.09999999999999</v>
       </c>
+      <c r="HC93" s="1" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="HD93" s="1" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="HE93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
-    <row r="94" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="94" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -59980,11 +60817,20 @@
       <c r="HA94" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HB94" t="n">
+      <c r="HB94" s="1" t="n">
         <v>46</v>
       </c>
+      <c r="HC94" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="HD94" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="HE94" t="n">
+        <v>44</v>
+      </c>
     </row>
-    <row r="95" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="95" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -60614,11 +61460,20 @@
       <c r="HA95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HB95" t="n">
+      <c r="HB95" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HC95" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="HD95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE95" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="96" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="96" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -61248,11 +62103,20 @@
       <c r="HA96" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HB96" t="n">
+      <c r="HB96" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="HC96" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="HD96" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="HE96" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="97" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="97" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -61882,11 +62746,20 @@
       <c r="HA97" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HB97" t="n">
+      <c r="HB97" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="HC97" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="HD97" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="HE97" t="n">
+        <v>32</v>
+      </c>
     </row>
-    <row r="98" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="98" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -62516,11 +63389,20 @@
       <c r="HA98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HB98" t="n">
+      <c r="HB98" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="HC98" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="HD98" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="HE98" t="n">
+        <v>39</v>
+      </c>
     </row>
-    <row r="99" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="99" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -63150,11 +64032,20 @@
       <c r="HA99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="HB99" t="n">
+      <c r="HB99" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="HC99" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="HD99" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="HE99" t="n">
+        <v>30</v>
+      </c>
     </row>
-    <row r="100" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="100" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -63784,11 +64675,20 @@
       <c r="HA100" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HB100" t="n">
+      <c r="HB100" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="HC100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="HD100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="HE100" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row r="101" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="101" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -64418,11 +65318,20 @@
       <c r="HA101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HB101" t="n">
+      <c r="HB101" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HC101" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="HD101" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="HE101" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" ht="13.8" customHeight="1" s="2">
+    <row customHeight="1" ht="13.8" r="102" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -65052,13 +65961,22 @@
       <c r="HA102" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="HB102" t="n">
+      <c r="HB102" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HC102" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="HD102" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="HE102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>